--- a/outputs/ML_Results/carown_LR/Paris.xlsx
+++ b/outputs/ML_Results/carown_LR/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ9" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ8" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ12" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1611002342585966</v>
+        <v>-0.4139183456802575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8359356277442214</v>
+        <v>0.5971320392702484</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2257240981466782</v>
+        <v>0.2693890147617579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0959999740726121</v>
+        <v>0.04959447246122681</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5106127315200786</v>
+        <v>-0.5974541915940856</v>
       </c>
       <c r="C4" t="n">
-        <v>3.111238313912334e-06</v>
+        <v>6.262914010172245e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4213995204149365</v>
+        <v>-0.3771080200757158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001438648325083019</v>
+        <v>0.0008832734668545563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3554451485947847</v>
+        <v>-0.3953898511536404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001617114592814248</v>
+        <v>0.001836441590167969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4334277951489314</v>
+        <v>0.01059232938917822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2005772944496544</v>
+        <v>0.8411263821233601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03611377452333403</v>
+        <v>0.0006171806460343455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4928145643181837</v>
+        <v>2.111378898907939e-94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006158639082101489</v>
+        <v>0.01405391521876646</v>
       </c>
       <c r="C9" t="n">
-        <v>5.784672682851959e-95</v>
+        <v>2.282773732821315e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01499397426575665</v>
+        <v>0.2675592382573362</v>
       </c>
       <c r="C10" t="n">
-        <v>2.802279469923282e-08</v>
+        <v>0.0001515461199274023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3104554963717829</v>
+        <v>0.3177176312531071</v>
       </c>
       <c r="C11" t="n">
-        <v>1.11952549398604e-05</v>
+        <v>0.004457876594439292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2577336614898208</v>
+        <v>0.3295635194820375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02019953907664298</v>
+        <v>0.02097263070519777</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2582730314671161</v>
+        <v>-2.686829979362718e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06989979766294854</v>
+        <v>3.258716314149012e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.84783871576186e-05</v>
+        <v>-1.349679798559234e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>1.142000504735855e-05</v>
+        <v>0.2171136939498692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.691752902893432e-09</v>
+        <v>-0.006771838159081624</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4830411514554737</v>
+        <v>0.7098478012521685</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003662489179060296</v>
+        <v>0.04303548615439926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8396741867628762</v>
+        <v>0.004259804537852114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03901138850974498</v>
+        <v>-2.371349882427615</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009039266402242622</v>
+        <v>5.597648384830495e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.148202113688866</v>
+        <v>-0.004846261554518002</v>
       </c>
       <c r="C18" t="n">
-        <v>2.280835126939317e-09</v>
+        <v>0.1526596498317285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007418149428103532</v>
+        <v>-0.0022363436512272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02801792074833148</v>
+        <v>0.6294524800398158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005731786604548406</v>
+        <v>1.047317960025906</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2192631101383289</v>
+        <v>0.005268808906685529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.259766580112032</v>
+        <v>-0.05896959121999019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0007298686070594578</v>
+        <v>0.9003696156395623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.254090790211665</v>
+        <v>-1.089383791511164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5896773688828473</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.135999813961877</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04264825067468216</v>
+        <v>0.05243155735769115</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09312963780506311</v>
+        <v>-0.4645419887824939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.906731455154751</v>
+        <v>0.5519852278546833</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2714731046953892</v>
+        <v>0.2985259780401989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04594172977672557</v>
+        <v>0.0279302751752839</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6658073345505159</v>
+        <v>-0.6080325713543353</v>
       </c>
       <c r="C4" t="n">
-        <v>1.411347375857145e-09</v>
+        <v>3.096004515925621e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4890697591757032</v>
+        <v>-0.3693198325362771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002040366536855503</v>
+        <v>0.001052343605420668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3991313079993319</v>
+        <v>-0.4116222924900952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004079975564773512</v>
+        <v>0.001153598319367286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1789136938780774</v>
+        <v>0.009536805181946615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5891915722660694</v>
+        <v>0.8548686084042613</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.007651141880102191</v>
+        <v>0.0006197147926678925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8832362355821669</v>
+        <v>2.087742937908902e-94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006349790629038979</v>
+        <v>0.01530840038012003</v>
       </c>
       <c r="C9" t="n">
-        <v>1.080952687097045e-97</v>
+        <v>1.634620794408704e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01483499814546659</v>
+        <v>0.2499744251970854</v>
       </c>
       <c r="C10" t="n">
-        <v>5.958119399560028e-08</v>
+        <v>0.0004069831809133131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2742980864613689</v>
+        <v>0.2277530229151328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001161661705063587</v>
+        <v>0.03937943029535874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3033916636454188</v>
+        <v>0.2253409125604217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006845003389518428</v>
+        <v>0.1118440840430332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3652036732460207</v>
+        <v>-3.357742990668401e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01134404561822023</v>
+        <v>2.332401151013656e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.994470988103371e-05</v>
+        <v>-2.759244602839995e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>4.98531833329217e-06</v>
+        <v>0.8021173896664231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.614701144468773e-09</v>
+        <v>0.001452593877287554</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4944113280245841</v>
+        <v>0.9364873547999122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01105093030106704</v>
+        <v>0.04924128952734591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5444330099313656</v>
+        <v>0.001080284470338091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04147405469053628</v>
+        <v>-2.028795332441059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006186284309720125</v>
+        <v>1.807511841723751e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.325084664634073</v>
+        <v>-0.004842544450111341</v>
       </c>
       <c r="C18" t="n">
-        <v>1.815089056159241e-10</v>
+        <v>0.1545372536652748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009648807613341037</v>
+        <v>-0.003619515614914427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004652254060995186</v>
+        <v>0.4360097784182849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006382753368102603</v>
+        <v>1.188005366786903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1736522042676414</v>
+        <v>0.001578396828830057</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.285668237253599</v>
+        <v>-0.06109426125563058</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006381302365816798</v>
+        <v>0.8973784539830738</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0418328964111508</v>
+        <v>-1.052310254965676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9292536043544479</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.9850142837654967</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.08038064189041966</v>
+        <v>0.05806942530978309</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3534956143771647</v>
+        <v>-0.5290593970035119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6523451706485394</v>
+        <v>0.5046298266903471</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2907233049535512</v>
+        <v>0.2004904132664882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03365435482695356</v>
+        <v>0.1395233073930607</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5666190167796564</v>
+        <v>-0.5999191433465174</v>
       </c>
       <c r="C4" t="n">
-        <v>2.932060344778446e-07</v>
+        <v>4.879625763572893e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4136838327644826</v>
+        <v>-0.4103346033231992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001740737199674643</v>
+        <v>0.0002765618916560832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2816480517787893</v>
+        <v>-0.4325801621696042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01322284276031178</v>
+        <v>0.0006490544505453466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4133359957714285</v>
+        <v>0.02777158769730377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2344891424113641</v>
+        <v>0.594929531189514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02245875682053508</v>
+        <v>0.0006134664470336997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6729446100201862</v>
+        <v>1.396723180968373e-93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006282461451632659</v>
+        <v>0.01425811348731194</v>
       </c>
       <c r="C9" t="n">
-        <v>3.738822052897421e-96</v>
+        <v>1.367556206129435e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01351884976639873</v>
+        <v>0.3203695845048209</v>
       </c>
       <c r="C10" t="n">
-        <v>5.768513214191414e-07</v>
+        <v>5.902882328046963e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.273086610993985</v>
+        <v>0.2567721654052486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001118272941393</v>
+        <v>0.01994490204170757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2839235572990835</v>
+        <v>0.2642289829050251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01140773548922764</v>
+        <v>0.06253271836449804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3529862994597516</v>
+        <v>-2.385381581486945e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01358843233652673</v>
+        <v>0.0002433675292828677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.902459254975073e-05</v>
+        <v>-1.558329489543996e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>9.249595938033119e-06</v>
+        <v>0.1613642414695359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.30004021448988e-08</v>
+        <v>-0.001756439001064855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2369691298619448</v>
+        <v>0.9237814353030175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004593341665667466</v>
+        <v>0.05593951044450174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8003904250355178</v>
+        <v>0.0002508322615645413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04511358501985351</v>
+        <v>-1.91195671030818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002727305180464759</v>
+        <v>1.117772365040974e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.006572109751293</v>
+        <v>-0.006801385899461691</v>
       </c>
       <c r="C18" t="n">
-        <v>3.191312287472742e-08</v>
+        <v>0.04699357506278973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007056387724683702</v>
+        <v>-0.00309295794445747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03901722154518775</v>
+        <v>0.5104347079365219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003700406689340538</v>
+        <v>1.000384291431053</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4303842249500011</v>
+        <v>0.007794704472394028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.201929501442366</v>
+        <v>0.04470789906740787</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001373982794953161</v>
+        <v>0.9246790585531731</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1443272664631823</v>
+        <v>-0.9117057623035423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7597719438494588</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.043336784245031</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06036216238839292</v>
+        <v>0.1066589828600744</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.457798010505919</v>
+        <v>-0.5753996282878451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5608061530728405</v>
+        <v>0.4610227779851999</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2486691173731867</v>
+        <v>0.2755764784587694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07129172439572162</v>
+        <v>0.04347813331945452</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5708794880507442</v>
+        <v>-0.5723592521343855</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2982705589696e-07</v>
+        <v>2.013310944857316e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4298062982753703</v>
+        <v>-0.3453316394622928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001274526129504893</v>
+        <v>0.002280514025128979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3275393761727069</v>
+        <v>-0.3941852177628999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003851398704546149</v>
+        <v>0.001967350957203715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01469856444752184</v>
+        <v>0.01869932391269433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9648345615959038</v>
+        <v>0.7208096423594972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03850133672384985</v>
+        <v>0.0006259235685857998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4671842030224725</v>
+        <v>3.571394118714741e-96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006206411560472837</v>
+        <v>0.014885872401658</v>
       </c>
       <c r="C9" t="n">
-        <v>2.023666834420134e-94</v>
+        <v>4.663466311695981e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01453594546837799</v>
+        <v>0.2692416338462839</v>
       </c>
       <c r="C10" t="n">
-        <v>9.989395777273009e-08</v>
+        <v>0.0001361438305075974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3062046685647026</v>
+        <v>0.336394963903798</v>
       </c>
       <c r="C11" t="n">
-        <v>1.589314985296881e-05</v>
+        <v>0.002915466708269253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2118607869624355</v>
+        <v>0.3610518570279483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05889993818564136</v>
+        <v>0.01206284040097568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2533175063076025</v>
+        <v>-2.822927725100847e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07839164190897614</v>
+        <v>1.418556192722522e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.910026314582452e-05</v>
+        <v>-1.280833481487032e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>7.053187856086345e-06</v>
+        <v>0.2434939637169536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.452675371908963e-08</v>
+        <v>-0.002090275289789069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1849160649466779</v>
+        <v>0.9086641934455205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00630785579785391</v>
+        <v>0.04752123859364833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7304254091680309</v>
+        <v>0.001536345274111043</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04610043176669641</v>
+        <v>-1.998359153294701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002500111094233597</v>
+        <v>3.721359712829598e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.096867112049198</v>
+        <v>-0.006318410216525099</v>
       </c>
       <c r="C18" t="n">
-        <v>5.920927142973118e-09</v>
+        <v>0.06259415133641066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004662953825689885</v>
+        <v>-0.003228385365745796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1696935777092948</v>
+        <v>0.4894752021862241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003228833565261626</v>
+        <v>1.305194573739011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4890497472478924</v>
+        <v>0.0005032240775456324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.059563085483384</v>
+        <v>0.2582498581566304</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004718740856146298</v>
+        <v>0.5836095757305375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1876729794527383</v>
+        <v>-1.124265212833533</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6896095588564749</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.100761222180809</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.05023051339236997</v>
+        <v>0.0423312412622656</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2677828412723776</v>
+        <v>-0.3941535352021986</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7344951121083547</v>
+        <v>0.6130279583009326</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2739203719088811</v>
+        <v>0.2729824927401734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04300375237020206</v>
+        <v>0.04551986117735479</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5604969815715651</v>
+        <v>-0.6273808177926924</v>
       </c>
       <c r="C4" t="n">
-        <v>2.99369169337636e-07</v>
+        <v>1.217879221132238e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.448558583252745</v>
+        <v>-0.3619649525969827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007511911535523397</v>
+        <v>0.001398857390520084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3658550181332819</v>
+        <v>-0.3587022057792132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001154180450547755</v>
+        <v>0.004463324909754476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2779578285035086</v>
+        <v>0.01476086713010644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3949849997077223</v>
+        <v>0.7784992272829664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01292029027400322</v>
+        <v>0.000617003902895816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8031840667110869</v>
+        <v>2.499395160545216e-94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006174483421982793</v>
+        <v>0.01540845754338325</v>
       </c>
       <c r="C9" t="n">
-        <v>1.452351332803301e-94</v>
+        <v>1.420942051893959e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01464896413583584</v>
+        <v>0.3050137828381532</v>
       </c>
       <c r="C10" t="n">
-        <v>6.461293934456659e-08</v>
+        <v>1.721753022291158e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2169344836428715</v>
+        <v>0.2174412194983987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002096587905696821</v>
+        <v>0.05030207753608983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2804039105056896</v>
+        <v>0.2694449612417538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01093643693869093</v>
+        <v>0.05967709774214076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2391767893978081</v>
+        <v>-2.827400305922828e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09105565881153706</v>
+        <v>1.257109069977279e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.496244011400967e-05</v>
+        <v>-1.256305077779212e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001045786333206042</v>
+        <v>0.2546449609038404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.27578046838948e-08</v>
+        <v>-0.005030667546445898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2477274551381915</v>
+        <v>0.7813762197057763</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.008612122050022821</v>
+        <v>0.04528683510850862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.637955060500045</v>
+        <v>0.002863181973138376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04596876281410878</v>
+        <v>-2.136418001113757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002340652060892251</v>
+        <v>3.1167525068804e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.275400829646208</v>
+        <v>-0.007754405149491486</v>
       </c>
       <c r="C18" t="n">
-        <v>2.356035167870904e-10</v>
+        <v>0.02310810329703295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004992379088003315</v>
+        <v>-0.003525802661747429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1426389311800873</v>
+        <v>0.4490467007843965</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002729202655199874</v>
+        <v>1.167288809479434</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5602411376236276</v>
+        <v>0.001821329990743903</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.146867155105933</v>
+        <v>-0.02251224825224352</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002162810572434723</v>
+        <v>0.9616152872967012</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1698356970796474</v>
+        <v>-0.8826049950535083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7189241827888739</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.313166213421067</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01931754585142152</v>
+        <v>0.1124699741530894</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4770307695217526</v>
+        <v>-0.1929283246839266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5428030800632262</v>
+        <v>0.806547682633473</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2103155224607269</v>
+        <v>0.3140528528185846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1205285158634255</v>
+        <v>0.02022916559432216</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6131837553074581</v>
+        <v>-0.6326225203578596</v>
       </c>
       <c r="C4" t="n">
-        <v>2.409699667886407e-08</v>
+        <v>7.035172016310586e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.54433943203029</v>
+        <v>-0.3906245636693332</v>
       </c>
       <c r="C5" t="n">
-        <v>3.948107000304625e-05</v>
+        <v>0.0004965275642033442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4046850482404862</v>
+        <v>-0.3845854413583799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003490202386283282</v>
+        <v>0.002278846191356602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07073205271634528</v>
+        <v>0.002673908268546765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8249132767661185</v>
+        <v>0.9586042377715109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0236059562263664</v>
+        <v>0.0006168129863991184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6521175562242033</v>
+        <v>5.434525613892257e-95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006158420754936866</v>
+        <v>0.0164412850362595</v>
       </c>
       <c r="C9" t="n">
-        <v>1.818422853086016e-94</v>
+        <v>1.572668794504059e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01555185886093709</v>
+        <v>0.2771800268663574</v>
       </c>
       <c r="C10" t="n">
-        <v>9.625447173779814e-09</v>
+        <v>9.362220308626699e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2843542851655947</v>
+        <v>0.3598375742177406</v>
       </c>
       <c r="C11" t="n">
-        <v>5.810574258390121e-05</v>
+        <v>0.001358878795491342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2480592157363029</v>
+        <v>0.3285364293192051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02669006200527227</v>
+        <v>0.02191558151704509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.244037448369177</v>
+        <v>-2.941292785968473e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08886792230001343</v>
+        <v>6.008910176407829e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.161468445514607e-05</v>
+        <v>-5.989200229909213e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>8.688236109377885e-07</v>
+        <v>0.5839574527278224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.355310782124386e-08</v>
+        <v>0.0002629871781154096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2168845072493528</v>
+        <v>0.9884965689385996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0004881450587068176</v>
+        <v>0.03989195928714426</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9786423089158895</v>
+        <v>0.007803200015280198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04092867795250284</v>
+        <v>-2.179525703753995</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006646387429771029</v>
+        <v>1.571396508221709e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.87687335441147</v>
+        <v>-0.009484974891652953</v>
       </c>
       <c r="C18" t="n">
-        <v>1.973451433271618e-07</v>
+        <v>0.005532701058199699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006676108549413687</v>
+        <v>-0.005482757838224049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0505128014680614</v>
+        <v>0.244876213453289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0009257945395941264</v>
+        <v>1.138602381924326</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8434271109818252</v>
+        <v>0.002160141858142881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.297628704857424</v>
+        <v>-0.02327525858387971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005349698692918402</v>
+        <v>0.9604084557298057</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02735506493049507</v>
+        <v>-0.9109249829519376</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9535760708772019</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.186978759173751</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03374432840355632</v>
+        <v>0.1012630077969169</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2542977565500407</v>
+        <v>-0.237414392156268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7502405177026464</v>
+        <v>0.7648857523929591</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3029456591949754</v>
+        <v>0.2304694934566151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02622096910722355</v>
+        <v>0.08918973288361121</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.624424909628168</v>
+        <v>-0.6042459378641299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.228907019213747e-08</v>
+        <v>3.680759946596099e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4239097649237598</v>
+        <v>-0.3708089690223252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001362109004081237</v>
+        <v>0.00104642665087565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3615034963384356</v>
+        <v>-0.324745812549009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001308619895672285</v>
+        <v>0.01012077025950743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1711494936996627</v>
+        <v>0.01035968094143993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6142120550077299</v>
+        <v>0.841197390239778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01047400553943678</v>
+        <v>0.0006501477941041793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8396265978347196</v>
+        <v>1.198900785025898e-101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006375721546843771</v>
+        <v>0.01524791227834781</v>
       </c>
       <c r="C9" t="n">
-        <v>8.406771604078062e-100</v>
+        <v>2.234085329594712e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01507928387910228</v>
+        <v>0.2666048276013943</v>
       </c>
       <c r="C10" t="n">
-        <v>2.789190074997566e-08</v>
+        <v>0.0001717444567731661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2554592917575972</v>
+        <v>0.2402140440346167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003194400829959233</v>
+        <v>0.03133308049136405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3180796805174791</v>
+        <v>0.2518566668338394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004755970054266168</v>
+        <v>0.0782348616506504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3282888539799533</v>
+        <v>-2.915722240336696e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212887995274376</v>
+        <v>7.40124003555545e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.339009873301819e-05</v>
+        <v>-7.683263437468269e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003514078538821709</v>
+        <v>0.4847938376525756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.934574731929704e-08</v>
+        <v>-0.00599240109814937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08093071493095434</v>
+        <v>0.742653846210021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004756143078137661</v>
+        <v>0.04860209881459097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.794882557119423</v>
+        <v>0.001304195545828684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05005420458237922</v>
+        <v>-2.051707143930902</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009047934301617484</v>
+        <v>1.581017391131742e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.131582580865773</v>
+        <v>-0.007019021117688432</v>
       </c>
       <c r="C18" t="n">
-        <v>3.821858260673224e-09</v>
+        <v>0.0398355975401621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005204778194910297</v>
+        <v>-0.005840712041841037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1275426084854668</v>
+        <v>0.2174777908196336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002642964560772413</v>
+        <v>1.181096820299502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5741136329395689</v>
+        <v>0.00173890251338312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.071242180771574</v>
+        <v>0.1286232149354404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004520602773296824</v>
+        <v>0.7869119027130342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01360329272169118</v>
+        <v>-1.01036582790634</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9769156668668858</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.396590181675796</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01463125885685989</v>
+        <v>0.07273791760873573</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.05647447574979</v>
+        <v>0.02468770298177458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179139766301546</v>
+        <v>0.9753530250992769</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2956568660076073</v>
+        <v>0.21529719844816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03128633401811908</v>
+        <v>0.1201978748847771</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6521334824985622</v>
+        <v>-0.5968273845918851</v>
       </c>
       <c r="C4" t="n">
-        <v>4.145353040221943e-09</v>
+        <v>7.740282438269154e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4632042973801415</v>
+        <v>-0.3424330897902683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004570544673403263</v>
+        <v>0.002701166312105048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3988367111618933</v>
+        <v>-0.3720232556205244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004605951661862421</v>
+        <v>0.00364437070996027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1876226499554417</v>
+        <v>0.0288547644420757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5735379655691031</v>
+        <v>0.5945369846597194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01874767701043089</v>
+        <v>0.00064394537380495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7220933411159616</v>
+        <v>1.768995044276255e-100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006178227256846115</v>
+        <v>0.01489917066174146</v>
       </c>
       <c r="C9" t="n">
-        <v>4.751339924765188e-92</v>
+        <v>4.628985411450464e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01563267254878882</v>
+        <v>0.236289707263</v>
       </c>
       <c r="C10" t="n">
-        <v>1.388273438913189e-08</v>
+        <v>0.0008749475259994023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3062905522832657</v>
+        <v>0.2387595829366609</v>
       </c>
       <c r="C11" t="n">
-        <v>1.720987386653162e-05</v>
+        <v>0.03217991642545891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2686804260653384</v>
+        <v>0.2625137983789679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01519224795093387</v>
+        <v>0.0673651510954188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3363378367617037</v>
+        <v>-3.187744560290437e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01855321424839704</v>
+        <v>1.028196034683109e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.85935819723014e-05</v>
+        <v>-1.632566644654832e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>1.055671936118309e-05</v>
+        <v>0.1385659001736696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.441923009256749e-09</v>
+        <v>0.005144240911122681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5610948125277515</v>
+        <v>0.7781920245882151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004110680000261474</v>
+        <v>0.0305818193266104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8231291376852572</v>
+        <v>0.04345443675168315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06062134495772229</v>
+        <v>-2.171584006775247</v>
       </c>
       <c r="C17" t="n">
-        <v>8.157391478032788e-05</v>
+        <v>2.404836914044022e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.076250216160602</v>
+        <v>-0.006031374557724413</v>
       </c>
       <c r="C18" t="n">
-        <v>1.302070776233855e-08</v>
+        <v>0.07991984319064926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004646795590876757</v>
+        <v>-0.002272009040255304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1749947306921387</v>
+        <v>0.6291165615397134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001003147807272054</v>
+        <v>1.374624511450573</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8306946573289924</v>
+        <v>0.0002533237224135188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.116053163638171</v>
+        <v>0.07146556676033214</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003049538212865582</v>
+        <v>0.8784604219864331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02250232167698705</v>
+        <v>-1.555650872940484</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9623405180344354</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.886062806651095</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1116253123547554</v>
+        <v>0.006407309883128588</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.00196344700964023</v>
+        <v>-0.374315702615049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980132524064245</v>
+        <v>0.6343626497921968</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2015270584304455</v>
+        <v>0.2483227052521567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1368264060654702</v>
+        <v>0.06554227857143982</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.619892746609065</v>
+        <v>-0.5250599207462631</v>
       </c>
       <c r="C4" t="n">
-        <v>1.740427312182451e-08</v>
+        <v>1.560788417449264e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4051274638880262</v>
+        <v>-0.3122485854078308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002160905897853299</v>
+        <v>0.005483514300701871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4104767358511411</v>
+        <v>-0.3248733419457782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002759895634142917</v>
+        <v>0.0102367201536421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01236268387029075</v>
+        <v>0.02752115045091767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9695363640938981</v>
+        <v>0.5926883805231311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01285991913572838</v>
+        <v>0.0006257460278955607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8033812378131601</v>
+        <v>1.180411082138264e-96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006241995988885382</v>
+        <v>0.01359773534731856</v>
       </c>
       <c r="C9" t="n">
-        <v>1.471901894498273e-96</v>
+        <v>6.412953573675815e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01461958774445147</v>
+        <v>0.3327842857239968</v>
       </c>
       <c r="C10" t="n">
-        <v>8.152599257521752e-08</v>
+        <v>2.823190363067429e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2670155184174186</v>
+        <v>0.2707570964657362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001716352739781564</v>
+        <v>0.01476652368774869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2999473864175271</v>
+        <v>0.3757891915426358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006686968222061367</v>
+        <v>0.008664729782130834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3052006118396339</v>
+        <v>-2.739794801831464e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0322779872766954</v>
+        <v>2.381207660919387e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.042171867938918e-05</v>
+        <v>-1.40549439929387e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>3.104215303247878e-06</v>
+        <v>0.2041552722673118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.173683887904864e-08</v>
+        <v>-0.006689738138297396</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2860195594739683</v>
+        <v>0.7136984945326275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0005528779023595833</v>
+        <v>0.04870817744020787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9757555379472865</v>
+        <v>0.001285946204447911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04049936075267648</v>
+        <v>-2.128770832126347</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007340930613066848</v>
+        <v>3.877359991486935e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.101982772457268</v>
+        <v>-0.006408621899093375</v>
       </c>
       <c r="C18" t="n">
-        <v>6.860964509454656e-09</v>
+        <v>0.05827063499927885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009277102683033911</v>
+        <v>-0.002978781058516087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007043776160152603</v>
+        <v>0.5246909703321185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006425772872500297</v>
+        <v>1.332657994228911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1709375170607803</v>
+        <v>0.0003787510569027891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.322553437597957</v>
+        <v>0.3854121518600655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004254154936851494</v>
+        <v>0.4140526252764645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02618965365871943</v>
+        <v>-1.32674571556488</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9555664864378189</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.9151524028838388</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1017861432987045</v>
+        <v>0.0187140850255425</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Paris.xlsx
+++ b/outputs/ML_Results/carown_LR/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ8" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ12" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4139183456802575</v>
+        <v>-1.185917384097216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5971320392702484</v>
+        <v>0.09153208382426657</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2693890147617579</v>
+        <v>0.3134469747095043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04959447246122681</v>
+        <v>0.02013929319821084</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5974541915940856</v>
+        <v>-0.6398307209682861</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262914010172245e-08</v>
+        <v>4.75963924419927e-09</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3771080200757158</v>
+        <v>-0.3996592065011371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008832734668545563</v>
+        <v>0.0003626188487995824</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3953898511536404</v>
+        <v>-0.3323975510932127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001836441590167969</v>
+        <v>0.00891720310908534</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01059232938917822</v>
+        <v>-0.01371400772176593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8411263821233601</v>
+        <v>0.789349725135633</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006171806460343455</v>
+        <v>0.0006211409725061319</v>
       </c>
       <c r="C8" t="n">
-        <v>2.111378898907939e-94</v>
+        <v>4.471668077362968e-97</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01405391521876646</v>
+        <v>0.0154279289120541</v>
       </c>
       <c r="C9" t="n">
-        <v>2.282773732821315e-07</v>
+        <v>1.397868288957705e-08</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2675592382573362</v>
+        <v>0.3033938618172068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001515461199274023</v>
+        <v>1.672196965086234e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3177176312531071</v>
+        <v>0.2577078153649199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004457876594439292</v>
+        <v>0.02051292124796871</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3295635194820375</v>
+        <v>0.2884100879447543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02097263070519777</v>
+        <v>0.04306022271072979</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.686829979362718e-05</v>
+        <v>-2.982111057480825e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.258716314149012e-05</v>
+        <v>2.944926054497422e-06</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.349679798559234e-08</v>
+        <v>-2.346665696332086e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2171136939498692</v>
+        <v>0.8221506996681665</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006771838159081624</v>
+        <v>0.0009345789827145374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7098478012521685</v>
+        <v>0.9591083798589806</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04303548615439926</v>
+        <v>0.05787077303304846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004259804537852114</v>
+        <v>2.530660965468111e-05</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.371349882427615</v>
+        <v>-2.029315564112902</v>
       </c>
       <c r="C17" t="n">
-        <v>5.597648384830495e-11</v>
+        <v>1.598741118051558e-08</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004846261554518002</v>
+        <v>-0.007053466372327746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1526596498317285</v>
+        <v>0.03341054485267475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0022363436512272</v>
+        <v>-0.003853248764391703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6294524800398158</v>
+        <v>0.3998830514526555</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.047317960025906</v>
+        <v>0.7549915193720058</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005268808906685529</v>
+        <v>0.01850378376869909</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05896959121999019</v>
+        <v>-0.2576857698277383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9003696156395623</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.089383791511164</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05243155735769115</v>
+        <v>0.5454997079684512</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4645419887824939</v>
+        <v>-0.7821317602218745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5519852278546833</v>
+        <v>0.2622086794119749</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2985259780401989</v>
+        <v>0.1837245932043203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0279302751752839</v>
+        <v>0.17994180571003</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6080325713543353</v>
+        <v>-0.6129004332751012</v>
       </c>
       <c r="C4" t="n">
-        <v>3.096004515925621e-08</v>
+        <v>2.303845251469145e-08</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3693198325362771</v>
+        <v>-0.3519268474161408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001052343605420668</v>
+        <v>0.00184374748256213</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4116222924900952</v>
+        <v>-0.430258295184579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001153598319367286</v>
+        <v>0.0007048991695553561</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009536805181946615</v>
+        <v>0.03922029602868413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8548686084042613</v>
+        <v>0.4628407277575869</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006197147926678925</v>
+        <v>0.0006162020573023474</v>
       </c>
       <c r="C8" t="n">
-        <v>2.087742937908902e-94</v>
+        <v>8.300079968058716e-95</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01530840038012003</v>
+        <v>0.01491578574854917</v>
       </c>
       <c r="C9" t="n">
-        <v>1.634620794408704e-08</v>
+        <v>3.150014593912457e-08</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2499744251970854</v>
+        <v>0.2523518320052592</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004069831809133131</v>
+        <v>0.0003525392711886732</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2277530229151328</v>
+        <v>0.2985602113080684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03937943029535874</v>
+        <v>0.007358381274526155</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2253409125604217</v>
+        <v>0.3291454890748443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1118440840430332</v>
+        <v>0.02070881125475681</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.357742990668401e-05</v>
+        <v>-2.38766832261597e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.332401151013656e-07</v>
+        <v>0.0001585751529737065</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.759244602839995e-09</v>
+        <v>-4.782132507708301e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8021173896664231</v>
+        <v>0.6432708002010293</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001452593877287554</v>
+        <v>-0.003567236484915561</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9364873547999122</v>
+        <v>0.8435950923674072</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04924128952734591</v>
+        <v>0.05227580209462671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001080284470338091</v>
+        <v>0.0001175485373200711</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.028795332441059</v>
+        <v>-2.277450739094447</v>
       </c>
       <c r="C17" t="n">
-        <v>1.807511841723751e-08</v>
+        <v>1.658062495087232e-10</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004842544450111341</v>
+        <v>-0.0101034572917928</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1545372536652748</v>
+        <v>0.00217161253808374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003619515614914427</v>
+        <v>-0.006053312271985055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4360097784182849</v>
+        <v>0.1837816603639012</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.188005366786903</v>
+        <v>0.7949330432761283</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001578396828830057</v>
+        <v>0.01220380691785212</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.06109426125563058</v>
+        <v>-0.342095231051472</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8973784539830738</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.052310254965676</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05806942530978309</v>
+        <v>0.4240718703379086</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5290593970035119</v>
+        <v>-0.6404867326119852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5046298266903471</v>
+        <v>0.3647028934225949</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2004904132664882</v>
+        <v>0.3653810338488163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1395233073930607</v>
+        <v>0.007916440772004677</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5999191433465174</v>
+        <v>-0.6356970145444355</v>
       </c>
       <c r="C4" t="n">
-        <v>4.879625763572893e-08</v>
+        <v>7.921027108165484e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4103346033231992</v>
+        <v>-0.3576696308369464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002765618916560832</v>
+        <v>0.001641686233141552</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4325801621696042</v>
+        <v>-0.2958592355364919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006490544505453466</v>
+        <v>0.01939808462742655</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02777158769730377</v>
+        <v>-0.01158343489385253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.594929531189514</v>
+        <v>0.8249715660797859</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006134664470336997</v>
+        <v>0.0006203018963859518</v>
       </c>
       <c r="C8" t="n">
-        <v>1.396723180968373e-93</v>
+        <v>3.73134974135284e-94</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01425811348731194</v>
+        <v>0.01650798825372861</v>
       </c>
       <c r="C9" t="n">
-        <v>1.367556206129435e-07</v>
+        <v>1.514624956946735e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3203695845048209</v>
+        <v>0.27232081389111</v>
       </c>
       <c r="C10" t="n">
-        <v>5.902882328046963e-06</v>
+        <v>0.0001247707865857425</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2567721654052486</v>
+        <v>0.2872220955372417</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01994490204170757</v>
+        <v>0.01035539304401765</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2642289829050251</v>
+        <v>0.2470234915626252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06253271836449804</v>
+        <v>0.08497223781210658</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.385381581486945e-05</v>
+        <v>-2.699766999341013e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002433675292828677</v>
+        <v>2.898338620245959e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.558329489543996e-08</v>
+        <v>-2.965973038802139e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1613642414695359</v>
+        <v>0.7779282693162829</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001756439001064855</v>
+        <v>-0.009310859799599142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9237814353030175</v>
+        <v>0.6118190036023254</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05593951044450174</v>
+        <v>0.06354305993447719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002508322615645413</v>
+        <v>3.486988923855626e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.91195671030818</v>
+        <v>-2.116191652805764</v>
       </c>
       <c r="C17" t="n">
-        <v>1.117772365040974e-07</v>
+        <v>4.550760216714041e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006801385899461691</v>
+        <v>-0.009961298624078676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04699357506278973</v>
+        <v>0.002764596670187584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00309295794445747</v>
+        <v>-0.008263441859438564</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5104347079365219</v>
+        <v>0.07330933269484255</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.000384291431053</v>
+        <v>0.7979615555634099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007794704472394028</v>
+        <v>0.012729296216951</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04470789906740787</v>
+        <v>-0.3862749979067756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9246790585531731</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.9117057623035423</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1066589828600744</v>
+        <v>0.3696948228747</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5753996282878451</v>
+        <v>-1.199646995883915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4610227779851999</v>
+        <v>0.08460935290599593</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2755764784587694</v>
+        <v>0.2780796205501033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04347813331945452</v>
+        <v>0.03871037792786046</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5723592521343855</v>
+        <v>-0.6043647027276956</v>
       </c>
       <c r="C4" t="n">
-        <v>2.013310944857316e-07</v>
+        <v>3.821166319768907e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3453316394622928</v>
+        <v>-0.3379912992117749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002280514025128979</v>
+        <v>0.002733636069987679</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3941852177628999</v>
+        <v>-0.3528886966694443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001967350957203715</v>
+        <v>0.005004631892961636</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01869932391269433</v>
+        <v>0.01990022140172638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7208096423594972</v>
+        <v>0.6994067516577144</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006259235685857998</v>
+        <v>0.0006136681297114486</v>
       </c>
       <c r="C8" t="n">
-        <v>3.571394118714741e-96</v>
+        <v>1.055736971219217e-93</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.014885872401658</v>
+        <v>0.0150654203670024</v>
       </c>
       <c r="C9" t="n">
-        <v>4.663466311695981e-08</v>
+        <v>2.743157734517082e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2692416338462839</v>
+        <v>0.3117682671359739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001361438305075974</v>
+        <v>9.560588815442818e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.336394963903798</v>
+        <v>0.2370159388417856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002915466708269253</v>
+        <v>0.03150824839428702</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3610518570279483</v>
+        <v>0.3126951599343178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01206284040097568</v>
+        <v>0.02788839919661728</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.822927725100847e-05</v>
+        <v>-2.863337572929404e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.418556192722522e-05</v>
+        <v>7.36716811778305e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.280833481487032e-08</v>
+        <v>-6.547052295557725e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2434939637169536</v>
+        <v>0.5303034410047651</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002090275289789069</v>
+        <v>0.003254519234837691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9086641934455205</v>
+        <v>0.8574872172753392</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04752123859364833</v>
+        <v>0.05087503497460217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001536345274111043</v>
+        <v>0.0001801134745207522</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.998359153294701</v>
+        <v>-2.223357305997351</v>
       </c>
       <c r="C17" t="n">
-        <v>3.721359712829598e-08</v>
+        <v>5.035217889768963e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006318410216525099</v>
+        <v>-0.006044239281386169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06259415133641066</v>
+        <v>0.0676689547164205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003228385365745796</v>
+        <v>-0.003190603587182399</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4894752021862241</v>
+        <v>0.4813730107496709</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.305194573739011</v>
+        <v>0.6958627828209386</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005032240775456324</v>
+        <v>0.02812633612029501</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2582498581566304</v>
+        <v>-0.3262512045571532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5836095757305375</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.124265212833533</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0423312412622656</v>
+        <v>0.4460383320800527</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3941535352021986</v>
+        <v>-1.126262773532628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6130279583009326</v>
+        <v>0.1060628581006361</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2729824927401734</v>
+        <v>0.2418964779672445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04551986117735479</v>
+        <v>0.07168599955120808</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6273808177926924</v>
+        <v>-0.6035463105111007</v>
       </c>
       <c r="C4" t="n">
-        <v>1.217879221132238e-08</v>
+        <v>2.824035714739343e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3619649525969827</v>
+        <v>-0.3547395689352255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001398857390520084</v>
+        <v>0.001584404983386274</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3587022057792132</v>
+        <v>-0.3743678734153748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004463324909754476</v>
+        <v>0.003149259919236095</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01476086713010644</v>
+        <v>-0.000520698528145495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7784992272829664</v>
+        <v>0.991896290322174</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000617003902895816</v>
+        <v>0.0006457818443796287</v>
       </c>
       <c r="C8" t="n">
-        <v>2.499395160545216e-94</v>
+        <v>3.730438453653992e-102</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01540845754338325</v>
+        <v>0.01288882260503591</v>
       </c>
       <c r="C9" t="n">
-        <v>1.420942051893959e-08</v>
+        <v>1.877222717605129e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3050137828381532</v>
+        <v>0.2339504717728174</v>
       </c>
       <c r="C10" t="n">
-        <v>1.721753022291158e-05</v>
+        <v>0.0008919970593745039</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2174412194983987</v>
+        <v>0.2628307906970965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05030207753608983</v>
+        <v>0.01728863411851526</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2694449612417538</v>
+        <v>0.3216451740352524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05967709774214076</v>
+        <v>0.02378186902978081</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.827400305922828e-05</v>
+        <v>-2.434784180048452e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.257109069977279e-05</v>
+        <v>0.0001701197914337313</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.256305077779212e-08</v>
+        <v>-2.456965118379414e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2546449609038404</v>
+        <v>0.8156455210468319</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005030667546445898</v>
+        <v>-0.004421544678899794</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7813762197057763</v>
+        <v>0.8058058730647067</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04528683510850862</v>
+        <v>0.05897640361116845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002863181973138376</v>
+        <v>1.320589111076238e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.136418001113757</v>
+        <v>-2.315872985123097</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1167525068804e-09</v>
+        <v>1.171206162904011e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007754405149491486</v>
+        <v>-0.007063374776345101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02310810329703295</v>
+        <v>0.03219173115776988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003525802661747429</v>
+        <v>-0.004017996016151126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4490467007843965</v>
+        <v>0.3779984854278016</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.167288809479434</v>
+        <v>0.7348309311122624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001821329990743903</v>
+        <v>0.02075493168684773</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02251224825224352</v>
+        <v>-0.2969719769059238</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9616152872967012</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.8826049950535083</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1124699741530894</v>
+        <v>0.4856510162788426</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1929283246839266</v>
+        <v>-1.270233372193484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.806547682633473</v>
+        <v>0.07192132625652689</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3140528528185846</v>
+        <v>0.2798400518545412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02022916559432216</v>
+        <v>0.04072161611863399</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6326225203578596</v>
+        <v>-0.5506361336194591</v>
       </c>
       <c r="C4" t="n">
-        <v>7.035172016310586e-09</v>
+        <v>5.298383915226836e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3906245636693332</v>
+        <v>-0.3716183896724959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004965275642033442</v>
+        <v>0.00101033454875153</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3845854413583799</v>
+        <v>-0.3785318995819441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002278846191356602</v>
+        <v>0.002705916792912073</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002673908268546765</v>
+        <v>0.02073557884060482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9586042377715109</v>
+        <v>0.693885091769797</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006168129863991184</v>
+        <v>0.0006464324043211232</v>
       </c>
       <c r="C8" t="n">
-        <v>5.434525613892257e-95</v>
+        <v>2.744770138954605e-100</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0164412850362595</v>
+        <v>0.0153726715334472</v>
       </c>
       <c r="C9" t="n">
-        <v>1.572668794504059e-09</v>
+        <v>1.457872284782666e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2771800268663574</v>
+        <v>0.2680775748749791</v>
       </c>
       <c r="C10" t="n">
-        <v>9.362220308626699e-05</v>
+        <v>0.0001563193865158579</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3598375742177406</v>
+        <v>0.2995913463917982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001358878795491342</v>
+        <v>0.007667460469082522</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3285364293192051</v>
+        <v>0.2986445628337739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02191558151704509</v>
+        <v>0.03798470562912119</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.941292785968473e-05</v>
+        <v>-2.251864414070336e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>6.008910176407829e-06</v>
+        <v>0.0004636022871861631</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.989200229909213e-09</v>
+        <v>-1.08478026888823e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5839574527278224</v>
+        <v>0.2988719392353272</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002629871781154096</v>
+        <v>-0.001105977556752548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9884965689385996</v>
+        <v>0.9513460750355706</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03989195928714426</v>
+        <v>0.05947416591711836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007803200015280198</v>
+        <v>1.315739332566602e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.179525703753995</v>
+        <v>-2.133016010477173</v>
       </c>
       <c r="C17" t="n">
-        <v>1.571396508221709e-09</v>
+        <v>3.317970300706889e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009484974891652953</v>
+        <v>-0.007686257292506799</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005532701058199699</v>
+        <v>0.02120815461476575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005482757838224049</v>
+        <v>-0.004745777804155489</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244876213453289</v>
+        <v>0.3036178529869245</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.138602381924326</v>
+        <v>0.756753279154902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002160141858142881</v>
+        <v>0.01734232200254603</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02327525858387971</v>
+        <v>-0.07551994119026115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9604084557298057</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.9109249829519376</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1012630077969169</v>
+        <v>0.8605271823081163</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.237414392156268</v>
+        <v>-1.223562056486243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7648857523929591</v>
+        <v>0.08112576500214534</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2304694934566151</v>
+        <v>0.2148697769819707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08918973288361121</v>
+        <v>0.1191219051019616</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6042459378641299</v>
+        <v>-0.6075813621002145</v>
       </c>
       <c r="C4" t="n">
-        <v>3.680759946596099e-08</v>
+        <v>4.80787362743775e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3708089690223252</v>
+        <v>-0.3576221587454929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00104642665087565</v>
+        <v>0.001688296375005157</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.324745812549009</v>
+        <v>-0.4514914959150528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01012077025950743</v>
+        <v>0.0003759569621551376</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01035968094143993</v>
+        <v>0.03999472270617523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.841197390239778</v>
+        <v>0.4546798437184496</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006501477941041793</v>
+        <v>0.0006039298758392731</v>
       </c>
       <c r="C8" t="n">
-        <v>1.198900785025898e-101</v>
+        <v>1.680895763356078e-88</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01524791227834781</v>
+        <v>0.01534241161823151</v>
       </c>
       <c r="C9" t="n">
-        <v>2.234085329594712e-08</v>
+        <v>2.362422915740151e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2666048276013943</v>
+        <v>0.3124547505597333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001717444567731661</v>
+        <v>1.185029392397103e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2402140440346167</v>
+        <v>0.3016945737295451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03133308049136405</v>
+        <v>0.006853049492603627</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2518566668338394</v>
+        <v>0.2560303151789091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0782348616506504</v>
+        <v>0.07404222989091681</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.915722240336696e-05</v>
+        <v>-2.642621271427473e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>7.40124003555545e-06</v>
+        <v>4.049383487029272e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.683263437468269e-09</v>
+        <v>-1.446889217723712e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4847938376525756</v>
+        <v>0.8905878565219383</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00599240109814937</v>
+        <v>0.0002578391638451134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.742653846210021</v>
+        <v>0.9887809617949509</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04860209881459097</v>
+        <v>0.067861135801037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001304195545828684</v>
+        <v>7.199907686257753e-07</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.051707143930902</v>
+        <v>-2.144113352784836</v>
       </c>
       <c r="C17" t="n">
-        <v>1.581017391131742e-08</v>
+        <v>3.049689262806262e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007019021117688432</v>
+        <v>-0.008440345635880947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0398355975401621</v>
+        <v>0.01090804197483856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005840712041841037</v>
+        <v>-0.004099463123963507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2174777908196336</v>
+        <v>0.3699668338320615</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.181096820299502</v>
+        <v>0.8012074208057194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00173890251338312</v>
+        <v>0.01226895541219664</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1286232149354404</v>
+        <v>-0.3899891647563043</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7869119027130342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.01036582790634</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07273791760873573</v>
+        <v>0.3642087123311409</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02468770298177458</v>
+        <v>-1.245889971716153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9753530250992769</v>
+        <v>0.07730884575408904</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.21529719844816</v>
+        <v>0.3042797064407494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1201978748847771</v>
+        <v>0.0259125377809006</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5968273845918851</v>
+        <v>-0.6337661259241809</v>
       </c>
       <c r="C4" t="n">
-        <v>7.740282438269154e-08</v>
+        <v>8.778841264612137e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3424330897902683</v>
+        <v>-0.38338926106524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002701166312105048</v>
+        <v>0.00069281970665248</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3720232556205244</v>
+        <v>-0.3964002094697294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00364437070996027</v>
+        <v>0.001765006513461999</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0288547644420757</v>
+        <v>0.001736835285779483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5945369846597194</v>
+        <v>0.9735537398988479</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00064394537380495</v>
+        <v>0.0006341598167313683</v>
       </c>
       <c r="C8" t="n">
-        <v>1.768995044276255e-100</v>
+        <v>2.437765882463506e-98</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01489917066174146</v>
+        <v>0.01397835846821627</v>
       </c>
       <c r="C9" t="n">
-        <v>4.628985411450464e-08</v>
+        <v>2.863488666761779e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.236289707263</v>
+        <v>0.2893114516079138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008749475259994023</v>
+        <v>4.67028740051005e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2387595829366609</v>
+        <v>0.2386995324709173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03217991642545891</v>
+        <v>0.03354489720949855</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2625137983789679</v>
+        <v>0.3252701247958508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0673651510954188</v>
+        <v>0.02319402329583288</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.187744560290437e-05</v>
+        <v>-2.745630636691897e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.028196034683109e-06</v>
+        <v>2.018716966392984e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.632566644654832e-08</v>
+        <v>-5.243886240345755e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1385659001736696</v>
+        <v>0.6177888811100951</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005144240911122681</v>
+        <v>0.003553443249976898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7781920245882151</v>
+        <v>0.8461794100883802</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0305818193266104</v>
+        <v>0.06563515965396043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04345443675168315</v>
+        <v>1.514899994981714e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.171584006775247</v>
+        <v>-2.178327783816072</v>
       </c>
       <c r="C17" t="n">
-        <v>2.404836914044022e-09</v>
+        <v>1.68056025846558e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006031374557724413</v>
+        <v>-0.006807454561838568</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07991984319064926</v>
+        <v>0.04178009993821419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002272009040255304</v>
+        <v>-0.005497324420257348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6291165615397134</v>
+        <v>0.2313573862395956</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.374624511450573</v>
+        <v>1.04313910513251</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002533237224135188</v>
+        <v>0.001076918542561142</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07146556676033214</v>
+        <v>-0.1415510338456441</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8784604219864331</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.555650872940484</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.006407309883128588</v>
+        <v>0.738488308395554</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.374315702615049</v>
+        <v>-0.4087170575123101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6343626497921968</v>
+        <v>0.5628520011607974</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2483227052521567</v>
+        <v>0.2361318632119808</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06554227857143982</v>
+        <v>0.08211598551685649</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5250599207462631</v>
+        <v>-0.5748391082339058</v>
       </c>
       <c r="C4" t="n">
-        <v>1.560788417449264e-06</v>
+        <v>1.499584642536882e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3122485854078308</v>
+        <v>-0.406569813916749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005483514300701871</v>
+        <v>0.0003197829471591883</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3248733419457782</v>
+        <v>-0.3831445236976387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0102367201536421</v>
+        <v>0.002607394746679473</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02752115045091767</v>
+        <v>0.007818329564910883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5926883805231311</v>
+        <v>0.880224417006766</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006257460278955607</v>
+        <v>0.0006244389232908803</v>
       </c>
       <c r="C8" t="n">
-        <v>1.180411082138264e-96</v>
+        <v>2.790779186896598e-96</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01359773534731856</v>
+        <v>0.0138657108942179</v>
       </c>
       <c r="C9" t="n">
-        <v>6.412953573675815e-07</v>
+        <v>3.436758550599566e-07</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3327842857239968</v>
+        <v>0.2781968220184922</v>
       </c>
       <c r="C10" t="n">
-        <v>2.823190363067429e-06</v>
+        <v>8.640460315703411e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2707570964657362</v>
+        <v>0.2638655599694842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01476652368774869</v>
+        <v>0.01713767639645815</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3757891915426358</v>
+        <v>0.3081813927172494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008664729782130834</v>
+        <v>0.03007390906147529</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.739794801831464e-05</v>
+        <v>-3.001122577989929e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.381207660919387e-05</v>
+        <v>2.373004650277517e-06</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.40549439929387e-08</v>
+        <v>-2.362266904564858e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2041552722673118</v>
+        <v>0.8193977355648572</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006689738138297396</v>
+        <v>0.0017020529254272</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7136984945326275</v>
+        <v>0.9253726964418938</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04870817744020787</v>
+        <v>0.04991174410109944</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001285946204447911</v>
+        <v>0.0002487675243615031</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.128770832126347</v>
+        <v>-2.312150566132088</v>
       </c>
       <c r="C17" t="n">
-        <v>3.877359991486935e-09</v>
+        <v>1.262151504729987e-10</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006408621899093375</v>
+        <v>-0.009767483398495992</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05827063499927885</v>
+        <v>0.003428922822837209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002978781058516087</v>
+        <v>-0.007911284959934973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5246909703321185</v>
+        <v>0.08612846192303548</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.332657994228911</v>
+        <v>0.8308140632604814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003787510569027891</v>
+        <v>0.009344478027362905</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3854121518600655</v>
+        <v>-0.5759077852115005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4140526252764645</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.32674571556488</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0187140850255425</v>
+        <v>0.1775165255516884</v>
       </c>
     </row>
   </sheetData>
